--- a/public/sample/importAnggotaSample.xlsx
+++ b/public/sample/importAnggotaSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Oibrary\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6923B7-594E-4D09-9BA5-1F2F8588CA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5865B0E9-6F99-4DC9-8F71-0B133E055CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4BA14F1D-6CA0-4EB7-B608-142CCB752FA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ahmad</t>
   </si>
@@ -78,9 +78,6 @@
     <t>081280968810</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -100,6 +97,21 @@
   </si>
   <si>
     <t>no_telp</t>
+  </si>
+  <si>
+    <t>Abdu</t>
+  </si>
+  <si>
+    <t>Rozzaq</t>
+  </si>
+  <si>
+    <t>Ozzaq@test.com</t>
+  </si>
+  <si>
+    <t>Jl. Sentu No. 57</t>
+  </si>
+  <si>
+    <t>089603363137</t>
   </si>
 </sst>
 </file>
@@ -145,25 +157,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -195,14 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,36 +519,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14F0847-6E2D-47DD-ACB3-5FA6A3B72309}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -559,86 +558,95 @@
       <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10023230</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10089489</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10023234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>10023230</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>10089489</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7">
-        <v>10023234</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3113231</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{05E7794F-E9DD-4991-A48E-18A57A29815E}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{E4B24FFD-092A-49E4-9113-9ECFE62374FA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6FC2B4CF-CA17-450C-8331-4FF68397BDFE}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{05E7794F-E9DD-4991-A48E-18A57A29815E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E4B24FFD-092A-49E4-9113-9ECFE62374FA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6FC2B4CF-CA17-450C-8331-4FF68397BDFE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{5A53EFFC-7308-4CA3-A4A6-CD874F7F65B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>